--- a/medicine/Psychotrope/Concha_y_Toro/Concha_y_Toro.xlsx
+++ b/medicine/Psychotrope/Concha_y_Toro/Concha_y_Toro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Concha y Toro est une entreprise chilienne, productrice et exportatrice de vins. Le domaine Concha y Toro a été fondé en 1883 par Don Melchor de Concha y Toro.
@@ -515,11 +527,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1883, Don Melchor de Concha y Toro (1833–1892)  décide de se lancer dans la production de vin en plantant un vignoble dans la vallée du Maipo. Les ceps de vigne sont d'origine bordelaise, et le premier œnologue était aussi français: Pierre-Paul Labuchelle.
 La maison qu'il avait construite en 1875 pour vivre au côté de sa femme est de pur type chilien avec des ajouts d'architecture française. Elle se visite aujourd'hui, de même que ses jardins, les vignes et les caves. Elle est située à Pirque, au Sud de Santiago du Chili.
-Le 15 avril 2019, le groupe britannique d'alcool Diageo modifie son contrat de distribution local au Chili et remplace la société Concha y Toro par les deux embouteilleurs de Coca-Cola, Coca-Cola Andina et Coca-Cola Embonor[1].
+Le 15 avril 2019, le groupe britannique d'alcool Diageo modifie son contrat de distribution local au Chili et remplace la société Concha y Toro par les deux embouteilleurs de Coca-Cola, Coca-Cola Andina et Coca-Cola Embonor.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Prix et reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2003, la revue Wine Spectator a donné une note de 96 sur 100 au vin Don Melchor[réf. nécessaire]
 </t>
